--- a/i_codebooks/D5_Table_6_Impact_of_component_flare_ImmDis.xlsx
+++ b/i_codebooks/D5_Table_6_Impact_of_component_flare_ImmDis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="174">
   <si>
     <t>metadata_content</t>
   </si>
@@ -114,9 +114,6 @@
     <t>ds</t>
   </si>
   <si>
-    <t>data source name, as stored in CDM_SOURCE, plus possible specification of subpopulation</t>
-  </si>
-  <si>
     <t>immune_diseases_in_the_study</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>Autoimmune hepatitis</t>
   </si>
   <si>
-    <t>datasource</t>
-  </si>
-  <si>
     <t>ImmDis</t>
   </si>
   <si>
@@ -186,23 +180,610 @@
     <t>D_HEPATITISAUTOIMMUNE_AESI</t>
   </si>
   <si>
-    <t>BIFAP_PC_HOSP
-SIDIAP
-VID
-EPICHRON
-PEDIANET
-DNR
-NNR
-FHR
-SNDS
-CPRD</t>
-  </si>
-  <si>
-    <t>D5_Table_9_Impact_of_component_flare_{ImmDis}</t>
-  </si>
-  <si>
-    <r>
-      <t>Cumulative incidence per 100,000 persons in one year</t>
+    <r>
+      <t>Left-hand OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>right-hand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(Total)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Left-hand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>only</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Right-hand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Left-hand AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(overlap)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Left-hand AND NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(Left-hand unique contribution)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Right-hand AND NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(Right-hand unique contribution)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>For each component algorithm the first case of flare only is counted. CI is reported as the number of subjects with at least one flare per 100,000 persons during one year of follow-up. </t>
+    </r>
+  </si>
+  <si>
+    <t>Impact on the cumulative incidence of first flare of {ImmDis} of combining the building blocks in the algorithm</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Total in the component (left-hand OR right-hand)</t>
+  </si>
+  <si>
+    <t>Left-hand</t>
+  </si>
+  <si>
+    <t>Right-hand</t>
+  </si>
+  <si>
+    <t>Unique contribution of the left-hand component (left-hand AND NOT right-hand)</t>
+  </si>
+  <si>
+    <t>Both components (left-hand AND right-hand)</t>
+  </si>
+  <si>
+    <t>Unique contribution of the right-hand component (right-hand AND NOT left-hand)</t>
+  </si>
+  <si>
+    <t>1: Diagnoses</t>
+  </si>
+  <si>
+    <t>52.1</t>
+  </si>
+  <si>
+    <t>2: Medicines</t>
+  </si>
+  <si>
+    <t>25.3</t>
+  </si>
+  <si>
+    <t>3: Procedures</t>
+  </si>
+  <si>
+    <t>4: Emergency</t>
+  </si>
+  <si>
+    <t>12.9</t>
+  </si>
+  <si>
+    <t>5: Hospitalization</t>
+  </si>
+  <si>
+    <t>11.6</t>
+  </si>
+  <si>
+    <t>6: Flare</t>
+  </si>
+  <si>
+    <t>&lt; 5</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>7: Dia + flares (1 or 6)</t>
+  </si>
+  <si>
+    <t>52.3</t>
+  </si>
+  <si>
+    <t>8: ER + H (4 or 5)</t>
+  </si>
+  <si>
+    <t>23.2</t>
+  </si>
+  <si>
+    <t>9: Dia + flares + ER + H (7 or 8)</t>
+  </si>
+  <si>
+    <t>71.3</t>
+  </si>
+  <si>
+    <t>10: Med + proc (2 or 3)</t>
+  </si>
+  <si>
+    <t>33.8</t>
+  </si>
+  <si>
+    <t>11: Diagnosis vs flares (1 vs 6)</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>12: ER vs H (4 vs 5)</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>13: (Dia + flares) vs medicines (7 vs 2)</t>
+  </si>
+  <si>
+    <t>74.6</t>
+  </si>
+  <si>
+    <t>49.3</t>
+  </si>
+  <si>
+    <t>22.3</t>
+  </si>
+  <si>
+    <t>14: (Dia + flares) vs procedures (7 vs 3)</t>
+  </si>
+  <si>
+    <t>61.4</t>
+  </si>
+  <si>
+    <t>52.2</t>
+  </si>
+  <si>
+    <t>51.3</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>15: (ER + H) vs medicines (8 vs 2)</t>
+  </si>
+  <si>
+    <t>42.3</t>
+  </si>
+  <si>
+    <t>25.2</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>16: (ER + H) vs procedures (8 vs 3)</t>
+  </si>
+  <si>
+    <t>31.3</t>
+  </si>
+  <si>
+    <t>23.3</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>21.3</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>17: (Dia + flares) vs (ER + H) (7 vs 8)</t>
+  </si>
+  <si>
+    <t>48.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>18: (Dia + flares + ER + H) vs medicines (9 vs 2)</t>
+  </si>
+  <si>
+    <t>87.9</t>
+  </si>
+  <si>
+    <t>62.7</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>16.6</t>
+  </si>
+  <si>
+    <t>19: (Dia + flares + ER + H) vs procedures (9 vs 3)</t>
+  </si>
+  <si>
+    <t>78.9</t>
+  </si>
+  <si>
+    <t>68.9</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>20: (Dia + flares + ER + H) vs (med + proc)  (9 vs 10)</t>
+  </si>
+  <si>
+    <t>95.5</t>
+  </si>
+  <si>
+    <t>61.7</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>24.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Diagnoses
+2: Medicines
+3: Procedures
+4: Emergency
+5: Hospitalization
+6: Flare
+7: Dia + flares (1 or 6)
+8: ER + H (4 or 5)
+9: Dia + flares + ER + H (7 or 8)
+10: Med + proc (2 or 3)
+11: Diagnosis vs flares (1 vs 6)
+12: ER vs H (4 vs 5)
+13: (Dia + flares) vs medicines (7 vs 2)
+14: (Dia + flares) vs procedures (7 vs 3)
+15: (ER + H) vs medicines (8 vs 2)
+16: (ER + H) vs procedures (8 vs 3)
+17: (Dia + flares) vs (ER + H) (7 vs 8)
+18: (Dia + flares + ER + H) vs medicines (9 vs 2)
+19: (Dia + flares + ER + H) vs procedures (9 vs 3)
+20: (Dia + flares + ER + H) vs (med + proc)  (9 vs 10)
+</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>D4_component_dataset_{ImmDis}/N</t>
+  </si>
+  <si>
+    <t>1000*Total in the component (left-hand OR right-hand)/sum of all N in D4_component_dataset_{ImmDis}/N</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>float approximated to the 1stdecimal  digit</t>
+  </si>
+  <si>
+    <t>Algorithms</t>
+  </si>
+  <si>
+    <t>sum up all the numbers in the column D4_component_dataset_{ImmDis}/N corresponding to rows where is_flare_XXX == 1 for all building blocks XXX that belong to this algortihm</t>
+  </si>
+  <si>
+    <t>Number of persons identified by this algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This is masked as '&lt; 5' if they are &gt;0 and &lt; 5</t>
+  </si>
+  <si>
+    <t>Total persons in this algorithm, per 1000 persons entering the follow -up in the cohort of {ImmDis}</t>
+  </si>
+  <si>
+    <t>this makes sense only if there is a comparison, therefore if ordering &gt;= 10\</t>
+  </si>
+  <si>
+    <t>Total in the algorithm (left-hand OR right-hand)</t>
+  </si>
+  <si>
+    <t>If this is a comparison: total persons in the left-hand component of the comparison of this algorithm, per 1000 persons entering the follow -up in the cohort of {ImmDis}</t>
+  </si>
+  <si>
+    <t>If this is a comparison: total persons in the right-hand component of the comparison of this algorithm, per 1000 persons entering the follow -up in the cohort of {ImmDis}</t>
+  </si>
+  <si>
+    <t>If this is a comparison: total persons in the left-hand component of the comparison of this algorithm, except those that are in the overlap, per 1000 persons entering the follow -up in the cohort of {ImmDis}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ordering and names of the algorithm
+From 1 to 6: components of the flares, as listed in D4_component_dataset_{ImmDis}
+From 7 to 10: composites of the previous
+From 11 to 20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comparison</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> between elements in 1-10</t>
+    </r>
+  </si>
+  <si>
+    <t>If this is a comparison: total persons in the right-hand component of the comparison of this algorithm, except those that are in the overlap, per 1000 persons entering the follow -up in the cohort of {ImmDis}</t>
+  </si>
+  <si>
+    <t>If this is a comparison: total persons in the overlap between both components, per 1000 persons entering the follow -up in the cohort of {ImmDis}</t>
+  </si>
+  <si>
+    <t>1000*(sum up all the numbers in the column D4_component_dataset_{ImmDis}/N corresponding to rows where is_flare_XXX == 1 for all building blocks XXX that belong to the left hand component of this algorithm)sum of all N in D4_component_dataset_{ImmDis}/N</t>
+  </si>
+  <si>
+    <t>1000*(sum up all the numbers in the column D4_component_dataset_{ImmDis}/N corresponding to rows where is_flare_XXX == 1 for all building blocks XXX that belong to the right hand component of this algorithm)/sum of all N in D4_component_dataset_{ImmDis}/N</t>
+  </si>
+  <si>
+    <t>1000*(sum up all the numbers in the column D4_component_dataset_{ImmDis}/N corresponding to rows where is_flare_XXX == 1 for all building blocks XXX that belong to the left- hand component of this algorithm, but not to the right-hand component)/sum of all N in D4_component_dataset_{ImmDis}/N</t>
+  </si>
+  <si>
+    <t>1000*(sum up all the numbers in the column D4_component_dataset_{ImmDis}/N corresponding to rows where is_flare_XXX == 1 for all building blocks XXX that belong to BOTH the left- hand and the right-hand components of this algorithm)/sum of all N in D4_component_dataset_{ImmDis}/N</t>
+  </si>
+  <si>
+    <t>1000*(sum up all the numbers in the column D4_component_dataset_{ImmDis}/N corresponding to rows where is_flare_XXX == 1 for all building blocks XXX that belong to the right-hand component of this algorithm, but not to the left-hand component)/sum of all N in D4_component_dataset_{ImmDis}/N</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for ordering &gt;= 10 this is a comparison between a left-hand component (the algorithm described </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>before</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the word 'vs') and a right-hand component  (the algorithm described </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>after</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the word 'vs')</t>
+    </r>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Algorithm entering the analysis</t>
+  </si>
+  <si>
+    <t>D5_Table_9_Impact_of_component_flare_{ds}_{ImmDis}</t>
+  </si>
+  <si>
+    <t>BIFAP</t>
+  </si>
+  <si>
+    <t>SIDIAP</t>
+  </si>
+  <si>
+    <t>VID</t>
+  </si>
+  <si>
+    <t>EPICHRON</t>
+  </si>
+  <si>
+    <t>PEDIANET</t>
+  </si>
+  <si>
+    <t>DNR</t>
+  </si>
+  <si>
+    <t>NNR</t>
+  </si>
+  <si>
+    <t>FHR</t>
+  </si>
+  <si>
+    <t>SNDS</t>
+  </si>
+  <si>
+    <t>CPRD</t>
+  </si>
+  <si>
+    <r>
+      <t>Cumulative incidence per 1,000 persons in one year</t>
     </r>
     <r>
       <rPr>
@@ -224,265 +805,6 @@
       </rPr>
       <t> </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>Component/composite algorithm by data domain</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Left-hand OR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>right-hand</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>(Total)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Left-hand</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>only</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Right-hand</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Left-hand AND</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>(overlap)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Left-hand AND NOT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>(Left-hand unique contribution)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Right-hand AND NOT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>(Right-hand unique contribution)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>Diagnoses</t>
-  </si>
-  <si>
-    <t>Medications</t>
-  </si>
-  <si>
-    <t>Procedures</t>
-  </si>
-  <si>
-    <t>Emergency</t>
-  </si>
-  <si>
-    <t>Hospitalization</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>For each component algorithm the first case of flare only is counted. CI is reported as the number of subjects with at least one flare per 100,000 persons during one year of follow-up. </t>
-    </r>
-  </si>
-  <si>
-    <t>Flare</t>
-  </si>
-  <si>
-    <t>Emergency OR Hospitalization</t>
-  </si>
-  <si>
-    <t>Flare vs Diagnoses</t>
-  </si>
-  <si>
-    <t>Emergency vs Hospitalization</t>
-  </si>
-  <si>
-    <t>Flare OR Diagnoses OR Emergency OR Hospitalization</t>
-  </si>
-  <si>
-    <t>(Flare or Diagnoses OR Emergency OR Hospitalization) vs Medications</t>
-  </si>
-  <si>
-    <t>(Flare OR Diagnoses) vs (Medications) </t>
-  </si>
-  <si>
-    <t>(Flare OR Diagnoses) vs (Procedures) </t>
-  </si>
-  <si>
-    <t>(Emergency OR Hospitalization) vs (Medications) </t>
-  </si>
-  <si>
-    <t>(Emergency OR Hospitalization)  vs (Procedures) </t>
-  </si>
-  <si>
-    <t>(Flare OR Diagnoses)  vs (Emergency OR Hospitalization) </t>
-  </si>
-  <si>
-    <t>(Flare or Diagnoses OR Emergency OR Hospitalization) vs Procedures</t>
-  </si>
-  <si>
-    <t>Medications OR Procedures</t>
-  </si>
-  <si>
-    <t>(Flare or Diagnoses OR Emergency OR Hospitalization) vs(Medications OR Procedures)</t>
-  </si>
-  <si>
-    <t>Flare OR Diagnoses</t>
-  </si>
-  <si>
-    <t>Impact on the cumulative incidence of first flare of {ImmDis} of combining the building blocks in the algorithm</t>
   </si>
 </sst>
 </file>
@@ -565,13 +887,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -583,6 +898,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -606,12 +929,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -628,8 +945,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -801,21 +1124,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -889,24 +1197,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -929,12 +1224,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -966,48 +1255,48 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1017,50 +1306,49 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1345,7 +1633,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1367,7 +1655,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1375,7 +1663,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1383,7 +1671,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1412,7 +1700,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1420,7 +1708,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1428,7 +1716,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1439,28 +1727,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A39"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="9"/>
-    <col min="2" max="2" width="56.33203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" style="10" customWidth="1"/>
     <col min="3" max="3" width="12.21875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49" style="9" customWidth="1"/>
+    <col min="5" max="5" width="24" style="9" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.21875" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.77734375" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.77734375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="66" style="10" customWidth="1"/>
     <col min="12" max="16384" width="8.6640625" style="9"/>
   </cols>
   <sheetData>
@@ -1495,90 +1783,230 @@
       <c r="J1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" ht="144" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="13"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="14"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="14"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="14"/>
+    <row r="2" spans="1:12" ht="290.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
+      <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
+      <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="15"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="15"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="15"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="13"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="11"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
+      <c r="B22" s="11"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
+      <c r="B23" s="11"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="16"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="16"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="16"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="16"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="17"/>
+      <c r="B24" s="14"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="14"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="14"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="14"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1588,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="B12" sqref="B12:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1624,142 +2052,222 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1771,8 +2279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1782,307 +2290,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25"/>
-      <c r="B1" s="34" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
+      <c r="B3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-    </row>
-    <row r="2" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="D3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="F3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="37"/>
+      <c r="B4" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="G4" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="B3" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
-      <c r="B4" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="5" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
+      <c r="A5" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
+      <c r="A6" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="30"/>
+      <c r="A7" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="30"/>
+      <c r="A8" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="30"/>
+      <c r="A9" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="30"/>
+      <c r="A10" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46"/>
+        <v>83</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46"/>
+        <v>85</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46"/>
+        <v>87</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
+        <v>89</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
+      <c r="A15" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
     </row>
     <row r="16" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
+      <c r="A16" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
     </row>
     <row r="17" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="32"/>
+      <c r="A17" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
     </row>
     <row r="18" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="33"/>
+      <c r="A18" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="47"/>
     </row>
     <row r="19" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
+      <c r="A19" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
+      <c r="A20" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="53"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A22" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
+        <v>130</v>
+      </c>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
     </row>
     <row r="25" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="40" t="s">
-        <v>73</v>
+      <c r="A25" s="26" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="41"/>
+      <c r="A26" s="27"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
+      <c r="A27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2096,17 +2604,478 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="82.5546875" customWidth="1"/>
+    <col min="1" max="1" width="47.77734375" customWidth="1"/>
     <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="43">
+        <v>717</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="43">
+        <v>348</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="43">
+        <v>138</v>
+      </c>
+      <c r="C4" s="43">
+        <v>10</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="43">
+        <v>178</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="43">
+        <v>160</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="45">
+        <v>720</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="45">
+        <v>320</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="45">
+        <v>982</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="45">
+        <v>465</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="52">
+        <v>720</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="52">
+        <v>52</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="52">
+        <v>320</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="52">
+        <v>1027</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="52">
+        <v>3</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="52">
+        <v>845</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="52">
+        <v>10</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="52">
+        <v>582</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="52">
+        <v>17</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="52">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="52">
+        <v>431</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="52">
+        <v>2</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="52">
+        <v>982</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="52">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="52">
+        <v>1211</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="52" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="52">
+        <v>1087</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="52">
+        <v>10</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" s="52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="52">
+        <v>1315</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>